--- a/angular/src/assets/sampleFiles/business/Import_Target_Setting_By_Model.xlsx
+++ b/angular/src/assets/sampleFiles/business/Import_Target_Setting_By_Model.xlsx
@@ -5,14 +5,15 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\S_member\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\S_member\Desktop\TMSS-SALE\angular\src\assets\sampleFiles\business\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="18195" windowHeight="7470"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="ImportTargetSettingByModel" sheetId="1" r:id="rId1"/>
+    <sheet name="Example" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="9">
   <si>
     <t>Model</t>
   </si>
@@ -38,12 +39,6 @@
     <t>Customer Quantity</t>
   </si>
   <si>
-    <t>CWD Quantity</t>
-  </si>
-  <si>
-    <t>Sale Quantity</t>
-  </si>
-  <si>
     <t>No.</t>
   </si>
   <si>
@@ -54,6 +49,9 @@
   </si>
   <si>
     <t>VE</t>
+  </si>
+  <si>
+    <t>VK</t>
   </si>
 </sst>
 </file>
@@ -91,7 +89,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -114,28 +112,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -418,34 +404,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="15.85546875" customWidth="1"/>
     <col min="5" max="5" width="20.7109375" customWidth="1"/>
-    <col min="6" max="6" width="13.85546875" customWidth="1"/>
-    <col min="7" max="7" width="15.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="3"/>
     </row>
-    <row r="2" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>0</v>
@@ -458,42 +440,98 @@
       </c>
       <c r="E2" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3">
-        <v>7</v>
-      </c>
-      <c r="E3">
-        <v>12</v>
-      </c>
-      <c r="F3">
-        <v>11</v>
-      </c>
-      <c r="G3">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A1:E1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.85546875" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" customWidth="1"/>
+    <col min="4" max="4" width="18.140625" customWidth="1"/>
+    <col min="5" max="5" width="18" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3">
+        <v>7</v>
+      </c>
+      <c r="E3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4">
+        <v>7</v>
+      </c>
+      <c r="E4">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:E1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>